--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>12096.53533337286</v>
+        <v>3816.204201062533</v>
       </c>
       <c r="R2">
-        <v>108868.8180003557</v>
+        <v>34345.8378095628</v>
       </c>
       <c r="S2">
-        <v>0.04172184662223347</v>
+        <v>0.02570953252381288</v>
       </c>
       <c r="T2">
-        <v>0.04172184662223347</v>
+        <v>0.02570953252381289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>19928.00377405054</v>
+        <v>3700.349296755108</v>
       </c>
       <c r="R3">
-        <v>179352.0339664548</v>
+        <v>33303.14367079598</v>
       </c>
       <c r="S3">
-        <v>0.06873316152389551</v>
+        <v>0.02492902517320894</v>
       </c>
       <c r="T3">
-        <v>0.06873316152389553</v>
+        <v>0.02492902517320894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>17637.78437498195</v>
+        <v>3768.162852723329</v>
       </c>
       <c r="R4">
-        <v>158740.0593748376</v>
+        <v>33913.46567450996</v>
       </c>
       <c r="S4">
-        <v>0.06083402512939531</v>
+        <v>0.02538588092066474</v>
       </c>
       <c r="T4">
-        <v>0.06083402512939531</v>
+        <v>0.02538588092066474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>7994.871209261602</v>
+        <v>1503.390645238061</v>
       </c>
       <c r="R5">
-        <v>71953.84088335441</v>
+        <v>13530.51580714255</v>
       </c>
       <c r="S5">
-        <v>0.02757490315735857</v>
+        <v>0.01012825012848693</v>
       </c>
       <c r="T5">
-        <v>0.02757490315735857</v>
+        <v>0.01012825012848693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>13114.86995027745</v>
+        <v>22282.07699772115</v>
       </c>
       <c r="R6">
-        <v>118033.829552497</v>
+        <v>200538.6929794904</v>
       </c>
       <c r="S6">
-        <v>0.04523415816646449</v>
+        <v>0.1501129795705153</v>
       </c>
       <c r="T6">
-        <v>0.04523415816646449</v>
+        <v>0.1501129795705154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>21605.62265661883</v>
@@ -883,10 +883,10 @@
         <v>194450.6039095695</v>
       </c>
       <c r="S7">
-        <v>0.07451939334814142</v>
+        <v>0.1455557483619227</v>
       </c>
       <c r="T7">
-        <v>0.07451939334814144</v>
+        <v>0.1455557483619228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>19122.60344916679</v>
+        <v>22001.57287205868</v>
       </c>
       <c r="R8">
-        <v>172103.4310425011</v>
+        <v>198014.1558485281</v>
       </c>
       <c r="S8">
-        <v>0.06595527612958839</v>
+        <v>0.1482232405623734</v>
       </c>
       <c r="T8">
-        <v>0.0659552761295884</v>
+        <v>0.1482232405623735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>8667.911372061246</v>
+        <v>8778.006718173317</v>
       </c>
       <c r="R9">
-        <v>78011.2023485512</v>
+        <v>79002.06046355986</v>
       </c>
       <c r="S9">
-        <v>0.02989626854579827</v>
+        <v>0.05913689030379716</v>
       </c>
       <c r="T9">
-        <v>0.02989626854579828</v>
+        <v>0.05913689030379717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>3944.995331562773</v>
+        <v>7051.424593313878</v>
       </c>
       <c r="R10">
-        <v>35504.95798406496</v>
+        <v>63462.8213398249</v>
       </c>
       <c r="S10">
-        <v>0.01360658119145889</v>
+        <v>0.0475050129315778</v>
       </c>
       <c r="T10">
-        <v>0.01360658119145889</v>
+        <v>0.04750501293157781</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>6499.041228698195</v>
+        <v>6837.352683518814</v>
       </c>
       <c r="R11">
-        <v>58491.37105828376</v>
+        <v>61536.17415166932</v>
       </c>
       <c r="S11">
-        <v>0.02241567472524489</v>
+        <v>0.04606282366775944</v>
       </c>
       <c r="T11">
-        <v>0.0224156747252449</v>
+        <v>0.04606282366775944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>5752.141014001689</v>
+        <v>6962.655772955496</v>
       </c>
       <c r="R12">
-        <v>51769.2691260152</v>
+        <v>62663.90195659946</v>
       </c>
       <c r="S12">
-        <v>0.01983956054536823</v>
+        <v>0.04690698285932201</v>
       </c>
       <c r="T12">
-        <v>0.01983956054536823</v>
+        <v>0.04690698285932201</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>2607.335797215289</v>
+        <v>2777.903175683855</v>
       </c>
       <c r="R13">
-        <v>23466.0221749376</v>
+        <v>25001.1285811547</v>
       </c>
       <c r="S13">
-        <v>0.008992894347520855</v>
+        <v>0.01871456250254175</v>
       </c>
       <c r="T13">
-        <v>0.008992894347520857</v>
+        <v>0.01871456250254175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>31671.79956202456</v>
+        <v>11146.11662043314</v>
       </c>
       <c r="R14">
-        <v>285046.196058221</v>
+        <v>100315.0495838982</v>
       </c>
       <c r="S14">
-        <v>0.1092383833188427</v>
+        <v>0.07509070077734592</v>
       </c>
       <c r="T14">
-        <v>0.1092383833188428</v>
+        <v>0.07509070077734593</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>52176.57153959746</v>
+        <v>10807.73528483791</v>
       </c>
       <c r="R15">
-        <v>469589.1438563772</v>
+        <v>97269.61756354115</v>
       </c>
       <c r="S15">
-        <v>0.1799608611106412</v>
+        <v>0.07281104657264832</v>
       </c>
       <c r="T15">
-        <v>0.1799608611106412</v>
+        <v>0.07281104657264832</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>46180.19590299312</v>
+        <v>11005.80063025564</v>
       </c>
       <c r="R16">
-        <v>415621.7631269382</v>
+        <v>99052.20567230076</v>
       </c>
       <c r="S16">
-        <v>0.1592789172560659</v>
+        <v>0.0741454005986828</v>
       </c>
       <c r="T16">
-        <v>0.1592789172560659</v>
+        <v>0.0741454005986828</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>20932.60189678887</v>
+        <v>4391.003881088455</v>
       </c>
       <c r="R17">
-        <v>188393.4170710999</v>
+        <v>39519.03492979609</v>
       </c>
       <c r="S17">
-        <v>0.07219809488198177</v>
+        <v>0.02958192254533981</v>
       </c>
       <c r="T17">
-        <v>0.07219809488198178</v>
+        <v>0.02958192254533981</v>
       </c>
     </row>
   </sheetData>
